--- a/StructureDefinition-Immunization.xlsx
+++ b/StructureDefinition-Immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T14:32:32+00:00</t>
+    <t>2024-06-24T11:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,6 +265,12 @@
     <t>Citizenship</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/ValueSet/citizenship-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#VYEGPSgn908
 </t>
   </si>
@@ -363,6 +369,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/gender-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#Rq4qM2wKYFL
 </t>
   </si>
@@ -407,6 +416,9 @@
     <t>Caretaker</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/caretaker-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#E5D1aKa2eFb
 </t>
   </si>
@@ -461,6 +473,9 @@
     <t>Mothers Education Level</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/education-level-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#YDWk8qQbFOh
 </t>
   </si>
@@ -541,6 +556,9 @@
     <t>Social Category</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/social-category-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#FIeADYwBKjB
 </t>
   </si>
@@ -551,6 +569,9 @@
     <t>Province of residence</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/province-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#FBm5ftjnCj2
 </t>
   </si>
@@ -559,6 +580,9 @@
   </si>
   <si>
     <t>District of residence_vacc</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/ValueSet/district-vs</t>
   </si>
   <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#getkVaLr2bw
@@ -957,7 +981,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.4375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="59.2421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1340,16 +1364,14 @@
         <v>69</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>69</v>
@@ -1381,10 +1403,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1410,10 +1432,10 @@
         <v>76</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1449,22 +1471,22 @@
         <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>70</v>
@@ -1481,10 +1503,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1510,10 +1532,10 @@
         <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1549,22 +1571,22 @@
         <v>69</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>70</v>
@@ -1581,10 +1603,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1610,10 +1632,10 @@
         <v>76</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1649,22 +1671,22 @@
         <v>69</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>70</v>
@@ -1681,10 +1703,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1710,10 +1732,10 @@
         <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1749,22 +1771,22 @@
         <v>69</v>
       </c>
       <c r="AA8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1781,10 +1803,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1810,10 +1832,10 @@
         <v>76</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1849,22 +1871,22 @@
         <v>69</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>70</v>
@@ -1881,10 +1903,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1907,13 +1929,13 @@
         <v>69</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1949,7 +1971,7 @@
         <v>69</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB10" t="s" s="2">
         <v>69</v>
@@ -1964,7 +1986,7 @@
         <v>69</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1981,10 +2003,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2007,13 +2029,13 @@
         <v>69</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2049,7 +2071,7 @@
         <v>69</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>69</v>
@@ -2064,7 +2086,7 @@
         <v>69</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>70</v>
@@ -2081,10 +2103,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2110,10 +2132,10 @@
         <v>76</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2149,22 +2171,22 @@
         <v>69</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>70</v>
@@ -2181,10 +2203,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2210,10 +2232,10 @@
         <v>80</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2240,31 +2262,29 @@
         <v>69</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2281,10 +2301,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2307,13 +2327,13 @@
         <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2349,22 +2369,22 @@
         <v>69</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>70</v>
@@ -2381,10 +2401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2407,13 +2427,13 @@
         <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2449,7 +2469,7 @@
         <v>69</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>69</v>
@@ -2464,7 +2484,7 @@
         <v>69</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>70</v>
@@ -2481,10 +2501,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2507,13 +2527,13 @@
         <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2549,7 +2569,7 @@
         <v>69</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>69</v>
@@ -2564,7 +2584,7 @@
         <v>69</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>70</v>
@@ -2581,10 +2601,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2610,10 +2630,10 @@
         <v>80</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2640,16 +2660,14 @@
         <v>69</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>69</v>
@@ -2664,7 +2682,7 @@
         <v>69</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>70</v>
@@ -2681,10 +2699,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2710,10 +2728,10 @@
         <v>76</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2749,7 +2767,7 @@
         <v>69</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>69</v>
@@ -2764,7 +2782,7 @@
         <v>69</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>70</v>
@@ -2781,10 +2799,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2807,13 +2825,13 @@
         <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2849,7 +2867,7 @@
         <v>69</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>69</v>
@@ -2864,7 +2882,7 @@
         <v>69</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>70</v>
@@ -2881,10 +2899,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2910,10 +2928,10 @@
         <v>76</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2949,7 +2967,7 @@
         <v>69</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>69</v>
@@ -2964,7 +2982,7 @@
         <v>69</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>70</v>
@@ -2981,10 +2999,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3007,13 +3025,13 @@
         <v>69</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3049,7 +3067,7 @@
         <v>69</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>69</v>
@@ -3064,7 +3082,7 @@
         <v>69</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>70</v>
@@ -3081,10 +3099,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3110,10 +3128,10 @@
         <v>80</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3140,16 +3158,14 @@
         <v>69</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>69</v>
@@ -3164,7 +3180,7 @@
         <v>69</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>70</v>
@@ -3181,10 +3197,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3210,10 +3226,10 @@
         <v>76</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3249,7 +3265,7 @@
         <v>69</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>69</v>
@@ -3264,7 +3280,7 @@
         <v>69</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>70</v>
@@ -3281,10 +3297,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3307,13 +3323,13 @@
         <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3349,7 +3365,7 @@
         <v>69</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>69</v>
@@ -3364,7 +3380,7 @@
         <v>69</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>70</v>
@@ -3381,10 +3397,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3410,10 +3426,10 @@
         <v>76</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3449,7 +3465,7 @@
         <v>69</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>69</v>
@@ -3464,7 +3480,7 @@
         <v>69</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>70</v>
@@ -3481,10 +3497,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3510,10 +3526,10 @@
         <v>80</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3540,16 +3556,14 @@
         <v>69</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>69</v>
@@ -3564,7 +3578,7 @@
         <v>69</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>70</v>
@@ -3581,10 +3595,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3610,10 +3624,10 @@
         <v>76</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3649,7 +3663,7 @@
         <v>69</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>69</v>
@@ -3664,7 +3678,7 @@
         <v>69</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>70</v>
@@ -3681,10 +3695,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3707,13 +3721,13 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3749,7 +3763,7 @@
         <v>69</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>69</v>
@@ -3764,7 +3778,7 @@
         <v>69</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>70</v>
@@ -3781,10 +3795,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3810,10 +3824,10 @@
         <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3849,7 +3863,7 @@
         <v>69</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>69</v>
@@ -3864,7 +3878,7 @@
         <v>69</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>70</v>
@@ -3881,10 +3895,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3910,10 +3924,10 @@
         <v>80</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3940,16 +3954,14 @@
         <v>69</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>69</v>
@@ -3964,7 +3976,7 @@
         <v>69</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>70</v>
@@ -3981,10 +3993,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4010,10 +4022,10 @@
         <v>80</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4040,16 +4052,14 @@
         <v>69</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>69</v>
@@ -4064,7 +4074,7 @@
         <v>69</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>70</v>
@@ -4081,10 +4091,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4110,10 +4120,10 @@
         <v>80</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4140,16 +4150,14 @@
         <v>69</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>69</v>
@@ -4164,7 +4172,7 @@
         <v>69</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>70</v>
@@ -4181,10 +4189,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4207,13 +4215,13 @@
         <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4249,7 +4257,7 @@
         <v>69</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>69</v>
@@ -4264,7 +4272,7 @@
         <v>69</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>70</v>
@@ -4281,10 +4289,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4310,10 +4318,10 @@
         <v>76</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4349,7 +4357,7 @@
         <v>69</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>69</v>
@@ -4364,7 +4372,7 @@
         <v>69</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>70</v>
@@ -4381,10 +4389,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4410,10 +4418,10 @@
         <v>76</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4449,7 +4457,7 @@
         <v>69</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>69</v>
@@ -4464,7 +4472,7 @@
         <v>69</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>70</v>
@@ -4481,10 +4489,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4510,10 +4518,10 @@
         <v>76</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4549,7 +4557,7 @@
         <v>69</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>69</v>
@@ -4564,7 +4572,7 @@
         <v>69</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>70</v>
@@ -4581,10 +4589,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4607,13 +4615,13 @@
         <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4649,7 +4657,7 @@
         <v>69</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>69</v>
@@ -4664,7 +4672,7 @@
         <v>69</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>70</v>
@@ -4681,10 +4689,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4707,13 +4715,13 @@
         <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4749,7 +4757,7 @@
         <v>69</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>69</v>
@@ -4764,7 +4772,7 @@
         <v>69</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>70</v>
